--- a/data/trans_bre/IP16A05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16A05-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 15,59</t>
+          <t>-9,91; 16,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 25,34</t>
+          <t>-7,08; 25,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,28; 23,77</t>
+          <t>-18,71; 21,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 26,81</t>
+          <t>-20,46; 24,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,95; —</t>
+          <t>-71,8; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 6,99</t>
+          <t>-7,94; 7,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 14,71</t>
+          <t>-2,96; 15,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 5,38</t>
+          <t>-10,72; 4,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 10,94</t>
+          <t>-0,32; 10,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,68; 109,66</t>
+          <t>-58,96; 110,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-21,44; 148,6</t>
+          <t>-20,7; 158,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-58,36; 59,78</t>
+          <t>-60,62; 55,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 708,25</t>
+          <t>-15,64; 631,7</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 4,42</t>
+          <t>-19,16; 4,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,7; 16,61</t>
+          <t>-12,43; 15,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-14,07; 17,36</t>
+          <t>-15,75; 15,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 9,82</t>
+          <t>-11,31; 10,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 136,19</t>
+          <t>-100,0; 116,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-57,32; 243,76</t>
+          <t>-61,27; 208,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-67,3; 307,23</t>
+          <t>-71,01; 266,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-76,94; 417,03</t>
+          <t>-84,32; 463,18</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 4,5</t>
+          <t>-6,81; 4,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 11,38</t>
+          <t>-1,82; 11,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 5,45</t>
+          <t>-7,94; 5,35</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 8,68</t>
+          <t>-1,26; 8,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-54,49; 62,44</t>
+          <t>-53,33; 62,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 114,49</t>
+          <t>-9,11; 141,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-48,82; 62,85</t>
+          <t>-49,13; 57,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 265,9</t>
+          <t>-21,2; 257,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP16A05-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP16A05-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>9,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,43%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -668,32 +668,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-10,58; 16,08</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-7,72; 25,76</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-19,83; 21,39</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-24,99; 24,76</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,99; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,17</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>-2,35</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>-3,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>123,13%</t>
+          <t>39,83%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>65,43%</t>
+          <t>-18,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>131,22%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 16,19</t>
+          <t>-7,38; 7,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,08; 25,56</t>
+          <t>-3,9; 15,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 21,81</t>
+          <t>-10,34; 5,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 24,33</t>
+          <t>-1,45; 12,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,2; 126,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,8; —</t>
+          <t>-21,17; 173,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,88; 64,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,16; 633,52</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-7,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,45</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,67%</t>
+          <t>-55,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-18,27%</t>
+          <t>-3,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>126,83%</t>
+          <t>4,07%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 7,38</t>
+          <t>-16,91; 5,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 15,18</t>
+          <t>-12,68; 15,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 4,53</t>
+          <t>-15,59; 14,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 10,94</t>
+          <t>-10,65; 10,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-58,96; 110,96</t>
+          <t>-100,0; 195,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 158,26</t>
+          <t>-62,39; 210,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-60,62; 55,96</t>
+          <t>-72,26; 239,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-15,64; 631,7</t>
+          <t>-79,24; 389,56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,13</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,54</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-55,26%</t>
+          <t>-13,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,91%</t>
+          <t>37,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-3,59%</t>
+          <t>-10,28%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>57,09%</t>
         </is>
       </c>
     </row>
@@ -968,156 +968,55 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 4,93</t>
+          <t>-7,12; 4,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,43; 15,65</t>
+          <t>-1,44; 12,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 15,01</t>
+          <t>-7,9; 5,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 10,01</t>
+          <t>-2,21; 8,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 116,11</t>
+          <t>-56,51; 63,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,27; 208,82</t>
+          <t>-10,51; 122,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-71,01; 266,09</t>
+          <t>-49,64; 57,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-84,32; 463,18</t>
+          <t>-34,49; 250,83</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,3</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,3</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-12,74%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>37,84%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-10,28%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>60,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; 4,52</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,82; 11,95</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-7,94; 5,35</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 8,87</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-53,33; 62,58</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-9,11; 141,43</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-49,13; 57,52</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-21,2; 257,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
